--- a/database/seeds/hypertension.xlsx
+++ b/database/seeds/hypertension.xlsx
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>Answer</t>
   </si>
   <si>
     <t>High blood pressure (hypertension) can increase your risk of heart attack, stroke and heart failure.</t>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1025,17 +1027,18 @@
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1056,33 +1059,33 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -1091,22 +1094,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
@@ -1115,10 +1118,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>1</v>
@@ -1135,7 +1138,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1157,28 +1160,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>1</v>
@@ -1186,22 +1189,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>2</v>
@@ -1209,33 +1212,33 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>3</v>
@@ -1243,17 +1246,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1267,28 +1270,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
@@ -1297,22 +1300,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
@@ -1321,7 +1324,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1343,28 +1346,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>4</v>
@@ -1372,41 +1375,41 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>154</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>5</v>
@@ -1414,26 +1417,26 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>1</v>
@@ -1447,10 +1450,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>1</v>
@@ -1464,12 +1467,12 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,16 +1480,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
         <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>1</v>
@@ -1500,38 +1503,38 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
         <v>41</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>42</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>43</v>
-      </c>
-      <c r="H37" t="s">
-        <v>44</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>2</v>
@@ -1539,10 +1542,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>1</v>
@@ -1556,38 +1559,38 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>51</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>52</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>53</v>
-      </c>
-      <c r="H42" t="s">
-        <v>54</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>3</v>
@@ -1595,10 +1598,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>1</v>
@@ -1612,26 +1615,26 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>1</v>
@@ -1645,22 +1648,22 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
         <v>61</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>62</v>
       </c>
-      <c r="G48" t="s">
-        <v>63</v>
-      </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>4</v>
@@ -1668,38 +1671,38 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B52">
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
         <v>70</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>71</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>72</v>
       </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>4</v>
@@ -1707,10 +1710,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>1</v>
@@ -1724,38 +1727,38 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57">
         <v>13</v>
       </c>
       <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
         <v>78</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>79</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>80</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>81</v>
       </c>
-      <c r="G57" t="s">
-        <v>82</v>
-      </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>4</v>
@@ -1763,10 +1766,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2">
         <v>3500</v>
@@ -1786,10 +1789,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>1</v>
@@ -1803,33 +1806,33 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" t="s">
         <v>90</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>91</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>92</v>
-      </c>
-      <c r="H62" t="s">
-        <v>93</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>3</v>
@@ -1837,22 +1840,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
         <v>94</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>95</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>96</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>97</v>
-      </c>
-      <c r="H63" t="s">
-        <v>98</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>1</v>
@@ -1860,10 +1863,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="b">
         <v>1</v>
@@ -1877,21 +1880,21 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67">
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2">
         <v>50</v>
@@ -1911,10 +1914,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="b">
         <v>1</v>
@@ -1928,31 +1931,31 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>1</v>
@@ -1966,22 +1969,22 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
         <v>112</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>113</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>114</v>
       </c>
-      <c r="G74" t="s">
-        <v>115</v>
-      </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>4</v>
@@ -1989,10 +1992,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>1</v>
@@ -2006,21 +2009,21 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78">
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>1</v>
@@ -2034,10 +2037,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2">
         <v>4</v>
@@ -2057,10 +2060,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2">
         <v>3</v>
@@ -2080,21 +2083,21 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B83">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E83" s="2" t="b">
         <v>1</v>
@@ -2108,22 +2111,22 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" t="s">
         <v>168</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>169</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>170</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>171</v>
-      </c>
-      <c r="H84" t="s">
-        <v>172</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>3</v>
@@ -2131,12 +2134,12 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
